--- a/Oven_hw/Oven.xlsx
+++ b/Oven_hw/Oven.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Vref</t>
   </si>
@@ -32,6 +32,9 @@
     <t>RA</t>
   </si>
   <si>
+    <t>k</t>
+  </si>
+  <si>
     <t>RB</t>
   </si>
   <si>
@@ -93,6 +96,18 @@
   </si>
   <si>
     <t>ADC value</t>
+  </si>
+  <si>
+    <t>VFb</t>
+  </si>
+  <si>
+    <t>Rup</t>
+  </si>
+  <si>
+    <t>Rdown</t>
+  </si>
+  <si>
+    <t>Vout</t>
   </si>
 </sst>
 </file>
@@ -545,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +571,7 @@
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,10 +579,19 @@
         <v>3300000</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -575,172 +599,197 @@
         <v>10000</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>10000</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1">
+        <f>I1*(I2/I3)+I1</f>
+        <v>5.5058823529411764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <f>B4+B3+B2</f>
         <v>20100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <f>B1/B5</f>
         <v>164.17910447761193</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <f>B4*B6</f>
         <v>16417.910447761195</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>0.38500000000000001</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <f>B4+B9*B10</f>
         <v>100.38500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4">
         <f>B2+B3+B11</f>
         <v>20100.384999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
         <f>B1/B12</f>
         <v>164.17595981370508</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <f>B13*B11</f>
         <v>16480.803725898786</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8">
         <f>B14-B7</f>
         <v>62.893278137591551</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <f>B13*(B11+B3)</f>
         <v>1658240.4018629496</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
         <f>B17/1000000</f>
         <v>1.6582404018629495</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <f>B17/2^21</f>
         <v>0.79071064084193687</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9">
         <f>B16/B18</f>
@@ -749,7 +798,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <f>(B14/B17)*2^21</f>
